--- a/data/R2F Pers Data.xlsx
+++ b/data/R2F Pers Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birgitp/Box/Rise 2 Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313543B7-DDCA-3F44-897B-F40314D3E1C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88568890-AEE8-A248-9FA1-BAC3BB56E59C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22080" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22080" windowHeight="16980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Countries" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="150">
   <si>
     <t>Timestamp</t>
   </si>
@@ -337,9 +338,6 @@
     <t>Senior Manager</t>
   </si>
   <si>
-    <t>CG550</t>
-  </si>
-  <si>
     <t>Performing Artist</t>
   </si>
   <si>
@@ -430,9 +428,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -473,6 +468,9 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Cameron</t>
   </si>
 </sst>
 </file>
@@ -482,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -518,6 +516,12 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -540,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -552,6 +556,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -773,9 +778,9 @@
   </sheetPr>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -790,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -900,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -908,7 +913,7 @@
         <v>44104.383199837961</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="3">
         <v>43</v>
@@ -929,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -978,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1026,7 +1031,7 @@
         <v>44105.349546307873</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3">
         <v>56</v>
@@ -1104,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1153,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1181,7 +1186,7 @@
         <v>44088.876920879629</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3">
         <v>58</v>
@@ -1202,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1231,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1239,7 +1244,7 @@
         <v>44101.813516215276</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="3">
         <v>26</v>
@@ -1248,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>9</v>
@@ -1280,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1288,7 +1293,7 @@
         <v>44098.862335659724</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C22" s="3">
         <v>29</v>
@@ -1297,10 +1302,19 @@
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1329,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1438,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1486,7 +1500,7 @@
         <v>44090.604155104171</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="3">
         <v>43</v>
@@ -1507,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1555,7 +1569,7 @@
         <v>44102.435055208334</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3">
         <v>44</v>
@@ -1596,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1625,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1647,13 +1661,22 @@
       <c r="F37" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>44089.635929340278</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" s="3">
         <v>46</v>
@@ -1674,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1703,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1711,7 +1734,7 @@
         <v>44091.387663564819</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" s="3">
         <v>31</v>
@@ -1732,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1761,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1789,7 +1812,7 @@
         <v>44098.943239641201</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="3">
         <v>54</v>
@@ -1798,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>15</v>
@@ -1809,7 +1832,7 @@
         <v>44111.484879884258</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="3">
         <v>34</v>
@@ -1829,7 +1852,7 @@
         <v>44097.920401574069</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3">
         <v>37</v>
@@ -1850,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2018,7 +2041,7 @@
         <v>44104.480346539349</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" s="3">
         <v>29</v>
@@ -2039,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2068,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2097,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2163,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2211,7 +2234,7 @@
         <v>44101.942505497689</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="3">
         <v>33</v>
@@ -2232,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2261,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2290,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2439,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2447,7 +2470,7 @@
         <v>44098.891415486112</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="3">
         <v>26</v>
@@ -2456,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
@@ -2527,7 +2550,7 @@
         <v>44101.605440879634</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C76" s="3">
         <v>42</v>
@@ -2548,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2556,7 +2579,7 @@
         <v>44099.466074537035</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" s="3">
         <v>31</v>
@@ -2677,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2706,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2774,7 +2797,7 @@
         <v>44096.248679560187</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C87" s="3">
         <v>43</v>
@@ -2795,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2824,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2836,4 +2859,94 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EFBCDA-2112-894A-8314-EC64C899CBBD}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/R2F Pers Data.xlsx
+++ b/data/R2F Pers Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birgitp/Box/Rise 2 Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88568890-AEE8-A248-9FA1-BAC3BB56E59C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B6A87D-DD9B-7140-AC01-553F71B1E0A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22080" windowHeight="16980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22080" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>CoffeeLovingCsMajor</t>
   </si>
   <si>
-    <t>KatObinger01</t>
-  </si>
-  <si>
     <t>JayRio1837</t>
   </si>
   <si>
@@ -434,15 +431,9 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>pclausen@grundfos.com</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>mavipasi</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -471,6 +462,15 @@
   </si>
   <si>
     <t>Cameron</t>
+  </si>
+  <si>
+    <t>pclau</t>
+  </si>
+  <si>
+    <t>mavi</t>
+  </si>
+  <si>
+    <t>KatObin01</t>
   </si>
 </sst>
 </file>
@@ -490,6 +490,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -515,6 +516,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -554,9 +556,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,9 +780,9 @@
   </sheetPr>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -795,28 +797,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -824,7 +826,7 @@
         <v>44089.679285763894</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3">
         <v>39</v>
@@ -844,7 +846,7 @@
         <v>44095.742119849536</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3">
         <v>30</v>
@@ -853,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
@@ -864,7 +866,7 @@
         <v>44095.620868645834</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3">
         <v>50</v>
@@ -873,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
@@ -884,7 +886,7 @@
         <v>44098.823789444446</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3">
         <v>57</v>
@@ -893,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
@@ -905,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -913,7 +915,7 @@
         <v>44104.383199837961</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="3">
         <v>43</v>
@@ -934,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -942,7 +944,7 @@
         <v>44098.419107118054</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
         <v>25</v>
@@ -962,7 +964,7 @@
         <v>44095.8630934838</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3">
         <v>22</v>
@@ -983,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,7 +1033,7 @@
         <v>44105.349546307873</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3">
         <v>56</v>
@@ -1040,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
@@ -1051,7 +1053,7 @@
         <v>44096.369823668982</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -1068,7 +1070,7 @@
         <v>44095.930282673609</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3">
         <v>45</v>
@@ -1088,7 +1090,7 @@
         <v>44095.568036932869</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>27</v>
@@ -1109,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1117,7 +1119,7 @@
         <v>44096.449059224542</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3">
         <v>26</v>
@@ -1126,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1137,7 +1139,7 @@
         <v>44090.809584386574</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
         <v>27</v>
@@ -1158,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1166,7 +1168,7 @@
         <v>44098.354918842597</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3">
         <v>48</v>
@@ -1175,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
@@ -1186,7 +1188,7 @@
         <v>44088.876920879629</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3">
         <v>58</v>
@@ -1207,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1215,7 +1217,7 @@
         <v>44095.93626159722</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3">
         <v>31</v>
@@ -1236,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1244,7 +1246,7 @@
         <v>44101.813516215276</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3">
         <v>26</v>
@@ -1253,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>9</v>
@@ -1264,7 +1266,7 @@
         <v>44089.965235185184</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3">
         <v>31</v>
@@ -1273,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>15</v>
@@ -1285,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1293,7 +1295,7 @@
         <v>44098.862335659724</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C22" s="3">
         <v>29</v>
@@ -1302,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
@@ -1314,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1322,7 +1324,7 @@
         <v>44098.00109539352</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3">
         <v>21</v>
@@ -1343,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1351,7 +1353,7 @@
         <v>44095.775931192125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3">
         <v>41</v>
@@ -1391,7 +1393,7 @@
         <v>44090.447744594909</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
         <v>45</v>
@@ -1411,16 +1413,16 @@
         <v>44096.085389375003</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3">
         <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
@@ -1431,7 +1433,7 @@
         <v>44089.548658136569</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3">
         <v>26</v>
@@ -1452,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1480,7 +1482,7 @@
         <v>44091.474209247681</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>32</v>
@@ -1489,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>15</v>
@@ -1500,7 +1502,7 @@
         <v>44090.604155104171</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="3">
         <v>43</v>
@@ -1509,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>9</v>
@@ -1521,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1529,7 +1531,7 @@
         <v>44096.446517627315</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3">
         <v>30</v>
@@ -1538,7 +1540,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>11</v>
@@ -1549,7 +1551,7 @@
         <v>44095.061579768517</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3">
         <v>23</v>
@@ -1569,7 +1571,7 @@
         <v>44102.435055208334</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3">
         <v>44</v>
@@ -1589,7 +1591,7 @@
         <v>44095.581277743055</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3">
         <v>32</v>
@@ -1610,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1618,7 +1620,7 @@
         <v>44098.045807280098</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3">
         <v>27</v>
@@ -1639,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1647,7 +1649,7 @@
         <v>44097.83904313657</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3">
         <v>39</v>
@@ -1656,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>4</v>
@@ -1668,15 +1670,15 @@
         <v>2</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>44089.635929340278</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>137</v>
+      <c r="B38" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C38" s="3">
         <v>46</v>
@@ -1697,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1725,8 +1727,8 @@
       <c r="H39" s="1">
         <v>1</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>141</v>
+      <c r="I39" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1734,7 +1736,7 @@
         <v>44091.387663564819</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="3">
         <v>31</v>
@@ -1755,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1763,7 +1765,7 @@
         <v>44095.574273321763</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3">
         <v>40</v>
@@ -1772,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
@@ -1784,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1792,7 +1794,7 @@
         <v>44095.714309120369</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="3">
         <v>27</v>
@@ -1812,7 +1814,7 @@
         <v>44098.943239641201</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="3">
         <v>54</v>
@@ -1821,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>15</v>
@@ -1832,7 +1834,7 @@
         <v>44111.484879884258</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3">
         <v>34</v>
@@ -1841,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>9</v>
@@ -1852,7 +1854,7 @@
         <v>44097.920401574069</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="3">
         <v>37</v>
@@ -1861,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -1873,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1881,7 +1883,7 @@
         <v>44096.509004363426</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="3">
         <v>20</v>
@@ -1901,7 +1903,7 @@
         <v>44089.510102870372</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="3">
         <v>19</v>
@@ -1921,7 +1923,7 @@
         <v>44097.903319363424</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="3">
         <v>55</v>
@@ -1930,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>9</v>
@@ -1941,7 +1943,7 @@
         <v>44098.051832314814</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="3">
         <v>39</v>
@@ -1950,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>9</v>
@@ -1961,7 +1963,7 @@
         <v>44095.540947638889</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="3">
         <v>40</v>
@@ -1981,7 +1983,7 @@
         <v>44093.639021689814</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="3">
         <v>26</v>
@@ -2001,7 +2003,7 @@
         <v>44089.412037407412</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C52" s="3">
         <v>21</v>
@@ -2021,7 +2023,7 @@
         <v>44097.916196365739</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="3">
         <v>21</v>
@@ -2041,7 +2043,7 @@
         <v>44104.480346539349</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C54" s="3">
         <v>29</v>
@@ -2062,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2070,16 +2072,16 @@
         <v>44098.029186145832</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D55" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>11</v>
@@ -2091,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2099,7 +2101,7 @@
         <v>44098.724400798616</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="3">
         <v>41</v>
@@ -2108,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>4</v>
@@ -2120,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2128,7 +2130,7 @@
         <v>44097.935347928244</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="3">
         <v>28</v>
@@ -2148,7 +2150,7 @@
         <v>44095.887010578706</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="3">
         <v>30</v>
@@ -2165,7 +2167,7 @@
         <v>44090.661166770835</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="3">
         <v>44</v>
@@ -2185,8 +2187,8 @@
       <c r="H59" s="1">
         <v>4</v>
       </c>
-      <c r="I59" s="10" t="s">
-        <v>134</v>
+      <c r="I59" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2194,7 +2196,7 @@
         <v>44095.726036215274</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="3">
         <v>26</v>
@@ -2234,7 +2236,7 @@
         <v>44101.942505497689</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="3">
         <v>33</v>
@@ -2243,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>15</v>
@@ -2255,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2263,7 +2265,7 @@
         <v>44095.740478680556</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="3">
         <v>58</v>
@@ -2272,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>4</v>
@@ -2284,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2292,7 +2294,7 @@
         <v>44097.655860405095</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="3">
         <v>50</v>
@@ -2301,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>4</v>
@@ -2313,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2321,7 +2323,7 @@
         <v>44098.078225798614</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="3">
         <v>46</v>
@@ -2330,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>4</v>
@@ -2341,7 +2343,7 @@
         <v>44095.775288182871</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="3">
         <v>41</v>
@@ -2361,7 +2363,7 @@
         <v>44097.330742592589</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="3">
         <v>24</v>
@@ -2381,7 +2383,7 @@
         <v>44098.2664725</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="3">
         <v>40</v>
@@ -2390,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>9</v>
@@ -2401,7 +2403,7 @@
         <v>44092.529544328703</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" s="3">
         <v>37</v>
@@ -2410,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>4</v>
@@ -2421,7 +2423,7 @@
         <v>44095.602390902779</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="3">
         <v>24</v>
@@ -2441,7 +2443,7 @@
         <v>44096.710686296297</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="3">
         <v>33</v>
@@ -2462,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2470,7 +2472,7 @@
         <v>44098.891415486112</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="3">
         <v>26</v>
@@ -2479,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
@@ -2490,7 +2492,7 @@
         <v>44096.35328974537</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="3">
         <v>41</v>
@@ -2499,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>9</v>
@@ -2510,7 +2512,7 @@
         <v>44097.921834560184</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="3">
         <v>48</v>
@@ -2519,7 +2521,7 @@
         <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>9</v>
@@ -2530,7 +2532,7 @@
         <v>44095.032555300924</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="3">
         <v>52</v>
@@ -2539,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>9</v>
@@ -2550,7 +2552,7 @@
         <v>44101.605440879634</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="3">
         <v>42</v>
@@ -2571,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2579,7 +2581,7 @@
         <v>44099.466074537035</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="3">
         <v>31</v>
@@ -2599,7 +2601,7 @@
         <v>44095.867421967589</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="3">
         <v>55</v>
@@ -2608,7 +2610,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>9</v>
@@ -2619,7 +2621,7 @@
         <v>44095.614617685183</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C79" s="3">
         <v>46</v>
@@ -2628,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>4</v>
@@ -2639,7 +2641,7 @@
         <v>44097.492717893518</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="3">
         <v>28</v>
@@ -2659,7 +2661,7 @@
         <v>44090.583679456016</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" s="3">
         <v>27</v>
@@ -2679,7 +2681,7 @@
         <v>44095.781411018514</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C82" s="3">
         <v>54</v>
@@ -2688,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>9</v>
@@ -2700,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2708,7 +2710,7 @@
         <v>44095.942142812499</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C83" s="3">
         <v>51</v>
@@ -2717,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -2729,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2737,7 +2739,7 @@
         <v>44089.693541192129</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C84" s="3">
         <v>32</v>
@@ -2757,7 +2759,7 @@
         <v>44095.580289560181</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85" s="3">
         <v>38</v>
@@ -2766,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>15</v>
@@ -2777,7 +2779,7 @@
         <v>44090.570244722221</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="3">
         <v>43</v>
@@ -2797,7 +2799,7 @@
         <v>44096.248679560187</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C87" s="3">
         <v>43</v>
@@ -2806,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>4</v>
@@ -2818,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
@@ -2826,7 +2828,7 @@
         <v>44095.930143749996</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C88" s="3">
         <v>57</v>
@@ -2835,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>15</v>
@@ -2847,16 +2849,13 @@
         <v>3</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I88">
     <sortCondition ref="B1:B88"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{509F9295-BFE3-764B-8D1D-27A24A026D95}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2865,85 +2864,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EFBCDA-2112-894A-8314-EC64C899CBBD}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>128</v>
+      <c r="A1" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
